--- a/SOURCE/LICS/BASE/ORACLE/INSTALL/ICS Setup Steps.xlsx
+++ b/SOURCE/LICS/BASE/ORACLE/INSTALL/ICS Setup Steps.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E_Drive\ICS_Projects\_ICS LADS\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN1\SOURCE\LICS\BASE\ORACLE\INSTALL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="8640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="8640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="health check" sheetId="2" r:id="rId2"/>
+    <sheet name="More on ICS Website" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Email for error notification.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,14 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;&lt;&lt; ICS Setup Complete  &gt;&gt;&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt; ICS Website Complete &gt;&gt;&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;&lt;&lt; DB Setup Complete &gt;&gt;&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -320,6 +313,26 @@
   </si>
   <si>
     <t>      lics_parameter_v32_lads_na.sql - sample of LADS NA, update it as new env</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt; ICS Website Complete &gt;&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt; ICS Setup Complete  &gt;&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>we might meet few issue after the installation, the frequent ones are in the "More on ICS Website" sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix - ASP_0177 8000ffff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display the error detail rather than 500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,7 +383,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,6 +408,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -410,7 +429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -438,16 +457,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -458,6 +483,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFCC"/>
       <color rgb="FF99FF99"/>
       <color rgb="FFCCFFFF"/>
     </mruColors>
@@ -474,6 +500,76 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>3829050</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>4743450</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>771525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -953,6 +1049,141 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1009650</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1924050</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>790575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3075" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3075"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1028700</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1943100</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>790575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3076" name="Object 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3076"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1215,11 +1446,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -1247,11 +1478,11 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
@@ -1278,11 +1509,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
@@ -1306,13 +1537,13 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B12" s="11" t="s">
-        <v>41</v>
+      <c r="B12" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B13" s="11" t="s">
-        <v>40</v>
+      <c r="B13" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -1322,7 +1553,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -1353,15 +1584,15 @@
     </row>
     <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
@@ -1412,18 +1643,18 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
     </row>
     <row r="34" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>4.0999999999999996</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1447,7 +1678,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="25.5" x14ac:dyDescent="0.15">
@@ -1455,15 +1686,15 @@
         <v>4.5</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>45</v>
+      <c r="B39" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -1475,11 +1706,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
+      <c r="A42" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
     </row>
     <row r="43" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8"/>
@@ -1487,53 +1718,64 @@
       <c r="C43" s="8"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+    </row>
+    <row r="46" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
+    <row r="47" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+    </row>
+    <row r="52" spans="1:3" ht="38.25" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-    </row>
-    <row r="52" spans="1:3" ht="38.25" x14ac:dyDescent="0.15">
-      <c r="B52" s="5" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
+      <c r="A54" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>29</v>
@@ -1541,7 +1783,7 @@
     </row>
     <row r="60" spans="1:3" ht="63.75" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>30</v>
@@ -1549,7 +1791,7 @@
     </row>
     <row r="61" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>31</v>
@@ -1557,19 +1799,20 @@
     </row>
     <row r="62" spans="1:3" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-    </row>
+      <c r="A64" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+    </row>
+    <row r="65" ht="77.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A48:C48"/>
@@ -1587,6 +1830,35 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="2049" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>3829050</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>4743450</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>771525</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="2049" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -1604,4 +1876,89 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="3075" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1009650</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>790575</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="3075" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="3076" r:id="rId6">
+          <objectPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1028700</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1943100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>790575</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="3076" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
 </file>